--- a/Assets/Arts/Excels/OjousamaNovel.xlsx
+++ b/Assets/Arts/Excels/OjousamaNovel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\OjousamaCard\Assets\Arts\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBC4FE0-5B07-4B64-84EB-C456068E60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827241D-65CE-42EF-8532-3778882A2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>Battle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battle01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nextBattle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,20 +475,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K1006"/>
+  <dimension ref="A1:L1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,8 +522,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -537,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -559,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -577,8 +588,11 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -590,7 +604,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -602,7 +616,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -614,7 +628,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -626,7 +640,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -638,7 +652,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -650,4560 +664,4560 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C171" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C206" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C207" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C208" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C209" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C210" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C211" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C212" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C213" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C216" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C217" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C218" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C220" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C221" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C222" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C223" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C224" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C225" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C226" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C227" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C228" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C229" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C230" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C231" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C232" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C233" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C234" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C235" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C236" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C237" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C238" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C239" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C240" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C241" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C242" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C243" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C244" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C245" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C246" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C247" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C248" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C249" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C250" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C251" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C252" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C253" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C254" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C255" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C256" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C257" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C258" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C259" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C260" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C261" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C262" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C263" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C264" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C265" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C266" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C267" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C268" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C269" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C270" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C271" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C272" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C273" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C274" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C275" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C276" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C277" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C278" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C279" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C280" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C281" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C282" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C283" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C284" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C285" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C286" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C287" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C288" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C289" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C290" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C291" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C292" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C293" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C294" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C295" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C296" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C297" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C298" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C299" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C300" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C301" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C302" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C303" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C304" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C305" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C306" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C307" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C308" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C309" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C310" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C311" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C312" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C313" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C314" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C315" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C316" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C317" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C318" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C319" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C320" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C321" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C322" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C323" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C324" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C325" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C326" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C327" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C328" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C329" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C330" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C331" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C332" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C333" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C334" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C335" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C336" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C337" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C338" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C339" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C340" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C341" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C342" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C343" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C344" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C345" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C346" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C347" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C348" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C349" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C350" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C351" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C352" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C353" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C354" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C355" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C356" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C357" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C358" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C359" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C360" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C361" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C362" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C363" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C364" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C365" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C366" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C367" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C368" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C369" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C370" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C371" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C372" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C373" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C374" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C375" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C376" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C377" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C378" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C379" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C380" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C381" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C382" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C383" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C384" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C385" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C386" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C387" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C388" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C389" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C390" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C391" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C392" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C393" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C394" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C395" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C396" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C397" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C398" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C399" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C400" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C401" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C402" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C403" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C404" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C405" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C406" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C407" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C408" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C409" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C410" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C411" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C412" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C413" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C414" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C415" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C416" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C417" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C418" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C419" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C420" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C421" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C422" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C423" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C424" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C425" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C426" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C427" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C428" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C429" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C430" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C431" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C432" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C433" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C434" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C435" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C436" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C437" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C438" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C439" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C440" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C441" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C442" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C443" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C444" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C445" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C446" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C447" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C448" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C449" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C450" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C451" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C452" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C453" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C454" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C455" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C456" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C457" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C458" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C459" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C460" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C461" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C462" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C463" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C464" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C465" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C466" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C467" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C468" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C469" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C470" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C471" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C472" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C473" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C474" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C475" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C476" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C477" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C478" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C479" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C480" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C481" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C482" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C483" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C484" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C485" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C486" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C487" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C488" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C489" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C490" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C491" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C492" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C493" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C494" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C495" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C496" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C497" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C498" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C499" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C500" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C501" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C502" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C503" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C504" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C505" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C506" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C507" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C508" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C509" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C510" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C511" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C512" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C513" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C514" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C515" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C516" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C517" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C518" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C519" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C520" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C521" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C522" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C523" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C524" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C525" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C526" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C527" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C528" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C529" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C530" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C531" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C532" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C533" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C534" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C535" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C536" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C537" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C538" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C539" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C540" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C541" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C542" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C543" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C544" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C545" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C546" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C547" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C548" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C549" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C550" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C551" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C552" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C553" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C554" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C555" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C556" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C557" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C558" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C559" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C560" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C561" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C562" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C563" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C564" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C565" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C566" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C567" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C568" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C569" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C570" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C571" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C572" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C573" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C574" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C575" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C576" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C577" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C578" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C579" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C580" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C581" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C582" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C583" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C584" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C585" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C586" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C587" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C588" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C589" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C590" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C591" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C592" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C593" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C594" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C595" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C596" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C597" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C598" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C599" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C600" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C601" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C602" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C603" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C604" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C605" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C606" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C607" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C608" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C609" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C610" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C611" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C612" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C613" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C614" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C615" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C616" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C617" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C618" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C619" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C620" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C621" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C622" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C623" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C624" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C625" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C626" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C627" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C628" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C629" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C630" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C631" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C632" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C633" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C634" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C635" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C636" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C637" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C638" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C639" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C640" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C641" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C642" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C643" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C644" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C645" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C646" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C647" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C648" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C649" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C650" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C651" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C652" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C653" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C654" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C655" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C656" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C657" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C658" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C659" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C660" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C661" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C662" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C663" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C664" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C665" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C666" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C667" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C668" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C669" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C670" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C671" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C672" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C673" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C674" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C675" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C676" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C677" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C678" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C679" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C680" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C681" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C682" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C683" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C684" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C685" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C686" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C687" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C688" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C689" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C690" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C691" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C692" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C693" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C694" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C695" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C696" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C697" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C698" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C699" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C700" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C701" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C702" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C703" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C704" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C705" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C706" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C707" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C708" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C709" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C710" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C711" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C712" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C713" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C714" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C715" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C716" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C717" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C718" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C719" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C720" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C721" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C722" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C723" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C724" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C725" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C726" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C727" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C728" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C729" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C730" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C731" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C732" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C733" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C734" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C735" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C736" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C737" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C738" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C739" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C740" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C741" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C742" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C743" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C744" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C745" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C746" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C747" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C748" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C749" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C750" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C751" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C752" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C753" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C754" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C755" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C756" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C757" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C758" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C759" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C760" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C761" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C762" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C763" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C764" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C765" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C766" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C767" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C768" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C769" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C770" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C771" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C772" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C773" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C774" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C775" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C776" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C777" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C778" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C779" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C780" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C781" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C782" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C783" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C784" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C785" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C786" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C787" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C788" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C789" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C790" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C791" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C792" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C793" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C794" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C795" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C796" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C797" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C798" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C799" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C800" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C801" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C802" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C803" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C804" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C805" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C806" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C807" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C808" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C809" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C810" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C811" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C812" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C813" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C814" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C815" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C816" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C817" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C818" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C819" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C820" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C821" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C822" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C823" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C824" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C825" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C826" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C827" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C828" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C829" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C830" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C831" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C832" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C833" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C834" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C835" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C836" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C837" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C838" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C839" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C840" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C841" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C842" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C843" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C844" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C845" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C846" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C847" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C848" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C849" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C850" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C851" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C852" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C853" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C854" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C855" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C856" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C857" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C858" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C859" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C860" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C861" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C862" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C863" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C864" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C865" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C866" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C867" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C868" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C869" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C870" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C871" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C872" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C873" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C874" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C875" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C876" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C877" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C878" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C879" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C880" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C881" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C882" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C883" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C884" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C885" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C886" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C887" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C888" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C889" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C890" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C891" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C892" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C893" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C894" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C895" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C896" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C897" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C898" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C899" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C900" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C901" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C902" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C903" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C904" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C905" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C906" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C907" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C908" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C909" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C910" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C911" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C912" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C913" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C914" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C915" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C916" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C917" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C918" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C919" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C920" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C921" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C922" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C923" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C924" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C925" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C926" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C927" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C928" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C929" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C930" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C931" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C932" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C933" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C934" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C935" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C936" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C937" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C938" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C939" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C940" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C941" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C942" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C943" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C944" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C945" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C946" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C947" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C948" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C949" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C950" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C951" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C952" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C953" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C954" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C955" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C956" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C957" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C958" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C959" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C960" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C961" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C962" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C963" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C964" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C965" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C966" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C967" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C968" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C969" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C970" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C971" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C972" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C973" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C974" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C975" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C976" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C977" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C978" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C979" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C980" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C981" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C982" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C983" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C984" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C985" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C986" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C987" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C988" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C989" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C990" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C991" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C992" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C993" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C994" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C995" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C996" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C997" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C998" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C999" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1000" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1001" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1002" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1003" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1004" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1005" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1006" t="b">
         <v>0</v>
       </c>

--- a/Assets/Arts/Excels/OjousamaNovel.xlsx
+++ b/Assets/Arts/Excels/OjousamaNovel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827241D-65CE-42EF-8532-3778882A2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A899ED-E434-4C52-A5F7-C4D581EE23C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -101,12 +101,72 @@
     <t>nextBattle</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Talker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>喋り手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>喋り手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,6 +182,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -152,12 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -475,201 +547,126 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1006"/>
+  <dimension ref="A1:M1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.46484375" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="46.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="b">
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">

--- a/Assets/Arts/Excels/OjousamaNovel.xlsx
+++ b/Assets/Arts/Excels/OjousamaNovel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A899ED-E434-4C52-A5F7-C4D581EE23C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6F2E6F-093F-4F17-A9EE-B1BDD2869CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -123,7 +134,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A</t>
+      <t>A,Left</t>
     </r>
     <rPh sb="0" eb="1">
       <t>シャベ</t>
@@ -151,7 +162,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>B</t>
+      <t>B,Right</t>
     </r>
     <rPh sb="0" eb="1">
       <t>シャベ</t>
@@ -159,6 +170,100 @@
     <rPh sb="2" eb="3">
       <t>テ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分使わない</t>
+    <rPh sb="0" eb="3">
+      <t>タブンツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>終わるときに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にして</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喋り手に変更があるときだけいじる</t>
+    <rPh sb="0" eb="1">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんなふうに喋り手に変更があるときだけTalkerをいじってね</t>
+    <rPh sb="6" eb="7">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あああ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Left</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -199,7 +304,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,11 +336,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -549,15 +664,17 @@
   </sheetPr>
   <dimension ref="A1:M1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.46484375" customWidth="1"/>
     <col min="2" max="2" width="46.86328125" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
@@ -602,34 +719,39 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -643,21 +765,75 @@
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="K4" t="b">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>

--- a/Assets/Arts/Excels/OjousamaNovel.xlsx
+++ b/Assets/Arts/Excels/OjousamaNovel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\OjousamaCard\Assets\Arts\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6F2E6F-093F-4F17-A9EE-B1BDD2869CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B4D37E-F34C-45BC-881B-6DF7C3751445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -266,6 +266,93 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Tatie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前は自分で決めてください</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ackGround</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前は適当に決めてください</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ojou_Normal,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストテスト～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>attle</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>attle02</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -336,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +432,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -662,22 +751,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1006"/>
+  <dimension ref="A1:O1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.46484375" customWidth="1"/>
-    <col min="2" max="2" width="46.86328125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.53125" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +808,14 @@
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -742,8 +839,14 @@
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -762,8 +865,14 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="N3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -783,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -800,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -820,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -834,4563 +943,4583 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C990" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C991" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C992" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C993" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C994" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C995" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C996" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C997" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C998" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C999" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1001" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1001" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1002" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1002" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1003" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1003" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1004" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1004" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1005" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1005" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="3:3" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1006" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1006" t="b">
         <v>0</v>
       </c>

--- a/Assets/Arts/Excels/OjousamaNovel.xlsx
+++ b/Assets/Arts/Excels/OjousamaNovel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B6E37-5544-4FDB-8CD3-E4C9E236CDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7754DB8-1F6E-4FC0-8111-94E72EC6952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -216,55 +216,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お嬢様。</t>
-  </si>
-  <si>
-    <t>それは高貴な生まれを持つ女性に対する敬称である。</t>
-  </si>
-  <si>
     <t>しかし、高貴な生まれだけでは普通の人間はお嬢様足りえない。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高貴な振る舞い、高貴な礼節、高貴な心…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高貴な顔立ち。高貴な頭脳。高貴な金。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>そして何より、高貴なパワー。これらが一つでも欠けてはならないし、逆にこれらがある者には、「お嬢様」と敬意を込めて人々からそう呼ばれた。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お嬢様は高貴な存在であると全人類がそう認識していた
-時、ある男がこう言った…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「俺のお嬢が世界で一番高貴なお嬢だ。だから俺のお嬢
-が世界で一番のお嬢様だ」、と。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しかしそれを聞いた違う男がこう言い返す。「いや、私のお嬢様が世界で一番可愛い。だから私のお嬢様こそが、世界で一番のお嬢様だ」、と。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そして2人のやり取りを聞いていたある男が2人のくだらない争いを止めるため、こう言った。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「まあまあ、醜い争いはやめたまえ。私のお嬢様が一番パワーがあるんだから一番のお嬢様に決まっているだろう？誰が一番かは一目瞭然なのだから、無駄なことで言い争ってないで平和的に解決しよう」、と。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そこからは色んな人が自分のお嬢様こそが一番と主張し、ある時は血が流れ、ある時は戦争が起こり、ある時は国が滅んだ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そして、人々が解決に困憊し、荒んでいた時に、ある一人が血を流さない、平和的な解決の手段を提唱した。それが、</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -291,10 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しかしその安直さに対し、人々は好色を示し、その提唱者の周りで賛同者、参加者がどんどん増えていき…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,40 +259,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お嬢様が誰が一番であるかは永遠の人類の課題であり、人類最終定理と同義であり、それを解決するために世界はカオスな混沌を極め、あまりにも多くの血が流れた…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国が「お嬢様バトル」を公認した時には、「お嬢様バトル」会場には世界中のお嬢様がそこに集まり、一番を決めた。</t>
-  </si>
-  <si>
-    <t>これが世界最初の「お嬢様バトル」の大会、「Lady's taste」の誕生経緯と言われている。</t>
-  </si>
-  <si>
-    <t>そして今、この大会に参加しようとしている一人のお嬢様が、この…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｺﾝｺﾝ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>…アヤサ様。撮影の用意が整いました。</t>
-    <rPh sb="4" eb="5">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トトノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>………</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -344,9 +270,6 @@
     <t>アヤサ様。アヤサお嬢様。撮影の用意が整いました。</t>
   </si>
   <si>
-    <t>…お嬢様、失礼いたします。</t>
-  </si>
-  <si>
     <t>………ZZZ</t>
   </si>
   <si>
@@ -354,19 +277,6 @@
   </si>
   <si>
     <t>……んあ？</t>
-  </si>
-  <si>
-    <t>何故ソファがあるのに床の上で大の字に寝てんですか！？</t>
-  </si>
-  <si>
-    <t>んん…起き抜けからやかましいですわね、マネージャーは…。準備が終わるまで部屋で待てと言ったのはそちらではなくて…？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だからといって、ここまでだらしない居眠りをなさらないでください！あぁ、涎が床に垂れてるし！</t>
-  </si>
-  <si>
-    <t>仕方ないじゃないですか、私がとっても疲れていること、あなたもおわかりではなくて？元々今日はオフの予定で、だから昨日は遅くまであのハゲに捕まっていたというのに、突然ジュンコのとこから仕事の依頼なんて…</t>
   </si>
   <si>
     <t>お気持ちはわかりますが、あちらのスタッフの皆様も今日はいらしてますから、どうか我慢なさってください。それから剣術コーチをハゲと呼ばないであげてください。彼、結構気にしてるんですから。</t>
@@ -376,31 +286,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あー、肩が重いですわぁ。このようなコンディションで刀など振りたくはありませんが…まぁ私の宣材動画のためとあれば、仕方ありませんわね。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アヤサ様の宣材動画ではなく、スポンサー会社の『お嬢様バトル』の宣材動画です。お間違え無きよう。</t>
-  </si>
-  <si>
     <t>はいはい、わかっていますわ。メイクも衣装も予め準備してバッチリですし、さっさと行きますわよ。</t>
   </si>
   <si>
-    <t>お待ち下さい、私の方で衣装の確認を…って、あ！さっきその衣装着たまま床で寝てましたね！？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あ、やべ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アヤサ様？！</t>
   </si>
   <si>
-    <t>ふっふっふ…三十六計…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なんとやらですわ！！！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,13 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あっ待てっ！誰かお嬢様捕まえてぇ！！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふっふーん</t>
-  </si>
-  <si>
     <t>ﾂﾙｯ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,91 +308,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>わとと、わとと…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>というわけでスポンサー宣材動画のために動きを撮影しますので、攻撃動作をカメラに向かってお願いします。</t>
-  </si>
-  <si>
     <t>また、攻撃対象がいないと攻撃しづらいでしょうのでこちらの方で人形を用意しました。人形に向かって攻撃をしてください。</t>
   </si>
   <si>
-    <t>…アヤサ様、私が叱ったのはアヤサ様が将来有名な選手になった時に粗相をして、ファンの方々に失望されないようにきつく言っているんです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>別にお嬢様を叱りたくて叱っているわけではないんです。ただお嬢様が将来トラブルに巻き込まれないために言っているんです。だからいい加減機嫌を直してください…。</t>
-    <rPh sb="29" eb="31">
-      <t>ジョウサマ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショウライ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しかもあんなに設備を粉々に破壊して、もし払えない金額だったら今頃私もアヤサ様もクビが飛びかねませんでした…</t>
-    <rPh sb="7" eb="9">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コナゴナ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イマゴロ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>けっ。あいあい分かってますわよ。</t>
   </si>
   <si>
-    <t>(良かった、これでなんとか撮影は出来そう…)</t>
-  </si>
-  <si>
     <t>んで、このスタジオをぶっ壊せばいいんですの？</t>
   </si>
   <si>
     <t>分かってますか！？！？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オッホッホ、冗談ですわよ。カルシウムが足りてないんではなくて？</t>
-    <rPh sb="19" eb="20">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -543,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任せてくださいまし。だって私は…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お疲れさまでした、お嬢様。</t>
   </si>
   <si>
@@ -560,25 +365,7 @@
     <t>それはそれ、これはこれ。どうせ武器を振るうなら、もう少し緊張感がありませんと。</t>
   </si>
   <si>
-    <t>でしたら、次のカットの撮影はちょうどいいかも知れませんね。予定ですと…</t>
-  </si>
-  <si>
     <t>模擬戦ですわね！？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…は、はい。アヤサ様と同じくクリア・エンジニアリング所属の選手との模擬戦を撮影する予定でございます。</t>
-  </si>
-  <si>
-    <t>よっし来ましたわね！どんな相手だろうと斬り伏せて、この刀の錆にしてやりますわ！！</t>
-  </si>
-  <si>
-    <t>あくまで練習試合ですから！物騒なことおっしゃらないでください！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あら、では言葉を改めて。
-どんな相手だろうと、なます切りにしてやりますわ！！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -589,27 +376,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ううん！アガって来ましたわ！アガって来ましたわ！オーホホホホホ！！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アヤサ様！ストップストップ！！暴れすぎですって！！</t>
-  </si>
-  <si>
-    <t>えぇー、終わりですの？せっかく楽しくなってきたとこですのに…。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アヤサ様の攻撃の流れ弾が飛びまくって、撮影機材に被害が及んでるんです！</t>
   </si>
   <si>
     <t>あら大変。道理で天井から何か落ちてくるわけですのね。</t>
-  </si>
-  <si>
-    <t>ちょっホントに天井崩れてるし！！避難！全員避難だぁ！！</t>
-  </si>
-  <si>
-    <t>あぁ…</t>
   </si>
   <si>
     <t>～翌日～</t>
@@ -622,13 +392,6 @@
     <t>また退屈そうな仕事ですわね。</t>
   </si>
   <si>
-    <t>アヤサ様にも責任の一端…いえ、責任の10割ほどを背負っていることをゆめゆめ忘れてはなりません。旦那様もあれだけお叱りになられたではありませんか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お父様に叱られずとも、スタジオ破壊はやりすぎた自覚がありますし、反省もしてますわ。ただ少し不完全燃焼なだけで…</t>
-  </si>
-  <si>
     <t>それはトレーニングなどで上手く発散してください。ただし、昨日みたいにヒートアップしすぎないようにしてくださいね。</t>
     <rPh sb="28" eb="30">
       <t>キノウ</t>
@@ -706,59 +469,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラマー　友澤
-シナリオ　高橋
-デザイナー　雨天どーん(@U10_dawn)
-統括　正田</t>
-    <rPh sb="7" eb="9">
-      <t>トモサワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ウテン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>トウカツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ショウダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制作協力　小杉、高瀬、福家、橋本</t>
-    <rPh sb="0" eb="2">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コスギ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タカセ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フケ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハシモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Thank you for playing !
 See you next experience !</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>世界で一番のお嬢様だもの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Play,intro,1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -772,10 +487,6 @@
   </si>
   <si>
     <t>(ニコッ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…というわけで、明日の撮影は午後1時からです。数枚の写真の撮影だけですので、一時間もしないうちに終わるとのことです。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -817,10 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Play,ending,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Play,shady bver,1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -833,53 +540,150 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>霧切 アヤサ。コウバシ地方から転校してきたお嬢様。お嬢様バトルに強い関心があり、転校した学校のお嬢様バトル部の体験入部をしている時にCE(クリアエンジニアリング)社の社長令嬢である明月ジュンコというお嬢様に才能を見出され、CE社のスポンサー選手にスカウトされる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>圧倒的なスピードと天才的な成長性を兼ね備えており、それで他のお嬢様を薙ぎ払い、大会を優勝する…と本人は豪語している。今は直近の大型大会「Lady's taste」に向けて練習中。</t>
-    <rPh sb="0" eb="3">
-      <t>アットウテキ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>テンサイテキ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セイチョウセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ソナ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウサマ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ユウショウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホンニン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ゴウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+    <t>その後アヤサは椅子に縛り付けられたまま撮影の日まで放置されたのだった</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シバ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=100&gt;もうしませんからほどいてええ！！！&lt;/size&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SceneFadeOut,0.5</t>
+  </si>
+  <si>
+    <t>SceneFadeOut,0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SceneFadeIn,0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Black,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stop,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Corridor,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Waiting,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Rise,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マネージャー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Right</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Rise,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？？？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Left</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Close,Both</t>
+  </si>
+  <si>
+    <t>Close,Both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -902,92 +706,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その後アヤサは椅子に縛り付けられたまま撮影の日まで放置されたのだった</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イス</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=100&gt;もうしませんからほどいてええ！！！&lt;/size&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クレジット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SceneFadeOut,0.5</t>
-  </si>
-  <si>
-    <t>SceneFadeOut,0.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SceneFadeIn,0.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SceneFadeOut,0.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SceneFadeIn,0.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SceneFadeIn,1.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SceneFadeOut,1.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▼</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Black,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stop,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Big,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Corridor,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Waiting,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Rise,</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1019,10 +755,10 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>？？？</t>
+      <t>アヤサ</t>
     </r>
     <r>
       <rPr>
@@ -1036,13 +772,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Close,Both</t>
-  </si>
-  <si>
-    <t>Close,Both</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+    <t>FadeIn,1L sleepy,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeIn,mane,Right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Studio,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fire,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L tired1,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L tired3,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L impatience,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L warusou,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L yummy,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L happy,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1050,7 +822,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Rise</t>
+      <t>adeOut,,Left</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeOut,,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Close,Left</t>
+  </si>
+  <si>
+    <t>Close,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeIn,1L tired2,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L neutaral,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
     </r>
     <r>
       <rPr>
@@ -1058,9 +855,77 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="128"/>
       </rPr>
-      <t>,</t>
+      <t>adeOut,,Both</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeOut,,Both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeIn,1L tired3,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change,1L interesting,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ceneFadeOut,1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SceneFadeOut,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeIn,1L interesting,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stop,0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Play,credit,1</t>
+  </si>
+  <si>
+    <t>Change,1L surprised2,Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rise,</t>
     </r>
     <r>
       <rPr>
@@ -1084,273 +949,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マネージャー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Right</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Rise,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アヤサ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Left</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeIn,1L sleepy,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeIn,mane,Right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Studio,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fire,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L tired1,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L tired3,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L impatience,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L warusou,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L yummy,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L happy,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>adeOut,,Left</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeOut,,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Close,Left</t>
-  </si>
-  <si>
-    <t>Close,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeIn,1L tired2,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L neutaral,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>adeOut,,Both</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeOut,,Both</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeIn,1L tired3,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change,1L interesting,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ceneFadeOut,1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>SceneFadeOut,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeIn,1L interesting,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stop,0.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Play,credit,1</t>
-  </si>
-  <si>
-    <t>Change,1L surprised2,Left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Rise,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マネージャー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>,Right</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rise,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アヤサ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Left</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Stop,0.5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1402,34 +1000,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Play,bomber,0.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PlayStopLoop,aa,0.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SceneFadeIn,2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeOut,,Right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lose,Right</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1448,6 +1019,423 @@
         <family val="2"/>
       </rPr>
       <t>ameEnd</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ceneFadeOut,2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>top,0.8</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayStopLoop,bomber,0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayLoop,ending,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お嬢様。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それは高貴な生まれを持つ女性に対する敬称である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高貴な振る舞い、高貴な礼節、高貴な心……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お嬢様は高貴な存在であると全人類がそう認識していた時、ある男がこう言った……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それを聞いた違う男がこう言い返す。「いや、私のお嬢様が世界で一番可愛い。だから私のお嬢様こそが、世界で一番のお嬢様だ」と。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人のやり取りを聞いていたある男がくだらない争いを止めるため、こう言った。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「まあまあ、醜い争いはやめたまえ。私のお嬢様が一番パワーがあるのだから一番のお嬢様に決まっているだろう？誰が一番かは一目瞭然なのだから、無駄なことで言い争ってないで平和的に解決しよう」と。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこからは様々な人物が自分のお嬢様こそが一番と主張し、ある時は血が流れ、ある時は戦争が起こり、またある時は国が滅んだ。</t>
+  </si>
+  <si>
+    <t>誰が一番のお嬢様であるかは永遠の人類の課題であり、人類最終定理と同義であり、それを解決するために世界はカオスな混沌を極め、あまりにも多くの血が流れた…</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして、人々が解決に困憊し荒んでいた時、ある一人が血を流さない平和的な解決の手段を提唱した。それが──</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その安直さに対して人々は好色を示し、賛同者、参加者がどんどん増えていき……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国が「お嬢様バトル」を公認した時には、「お嬢様バトル」会場には世界中のお嬢様がそこに集まり、戦いを繰り広げた。</t>
+    <rPh sb="46" eb="47">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが世界最初の「お嬢様バトル」大会、「Lady's taste」の誕生経緯と言われている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして今、この大会に参加しようとしている一人のお嬢様がいた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……アヤサ様。撮影の用意が整いました。</t>
+    <rPh sb="5" eb="6">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……お嬢様、失礼いたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何故ソファがあるのに床の上で大の字に寝てんですか！？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>んん……起き抜けからやかましいですわね、マネージャーは……。準備が終わるまで部屋で待てと言ったのはそちらではなくて……？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だからといって、ここまでだらしない居眠りをなさらないでください！　あぁ、涎が床に垂れてるし！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕方ないじゃないですか、私がとっても疲れていること、あなたもおわかりではなくて？　元々今日はオフの予定で、だから昨日は遅くまであのハゲに捕まっていたというのに、突然ジュンコのとこから仕事の依頼なんて…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あー、肩が重いですわぁ。このようなコンディションで刀など振りたくはありませんが……私の宣材動画のためとあれば、仕方ありませんわね。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヤサ様の宣材動画ではなく、スポンサー会社の「お嬢様バトル」の宣材動画です。お間違え無きよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お待ち下さい、私の方で衣装の確認を……って、さっきその衣装着たまま床で寝てましたね！？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ、やべ……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふっふっふ……三十六計……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待てっ！誰かお嬢様捕まえてぇ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霧切 アヤサ。コウバシ地方から転校してきたお嬢様。お嬢様バトルに強い関心があり、転校した学校のお嬢様バトル部の体験入部をしている時にCE(クリアエンジニアリング)社の社長令嬢である明月ジュンコに才能を見出され、CE社のスポンサー選手にスカウトされる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧倒的なスピードと天才的な成長性を兼ね備えており、他のお嬢様を薙ぎ払い、大会を優勝する…と本人は豪語している。今は直近の大型大会「Lady's taste」に向けて練習中。</t>
+    <rPh sb="0" eb="3">
+      <t>アットウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テンサイテキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セイチョウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウサマ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ユウショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゴウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふっふーん。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わとと、わとと……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>というわけでスポンサー宣材動画のために動きを撮影しますので、攻撃動作をカメラに向かってお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……アヤサ様、私が叱ったのはアヤサ様が将来有名な選手になった時に粗相をして、ファンの方々に失望されないようにきつく言っているんです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかもあんなに設備を粉々に破壊して、もし払えない金額だったら今頃私もアヤサ様もクビが飛びかねませんでした……</t>
+    <rPh sb="7" eb="9">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コナゴナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イマゴロ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別にお嬢様を叱りたくて叱っているわけではないんです。ただお嬢様が将来トラブルに巻き込まれないために言っているんです。だからいい加減機嫌を直してください……。</t>
+    <rPh sb="29" eb="31">
+      <t>ジョウサマ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(良かった、これでなんとか撮影は出来そう……)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オッホッホ、冗談ですわよ。カルシウムが足りてないのではなくて？</t>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任せてくださいまし。だって私は……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界で一番のお嬢様ですもの。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でしたら、次のカットの撮影はちょうどいいかも知れませんね。予定ですと……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……は、はい。アヤサ様と同じくクリア・エンジニアリング所属の選手との模擬戦を撮影する予定でございます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よっし来ましたわね！　どんな相手だろうと斬り伏せて、この刀の錆にしてやりますわ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あくまで練習試合ですから！　物騒なことおっしゃらないでください！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あら、では言葉を改めて。どんな相手だろうと、なます切りにしてやりますわ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ううん！　アガって来ましたわ！　アガって来ましたわ！　オーホホホホホ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヤサ様！　ストップストップ！！　暴れすぎですって！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えぇー、終わりですの？　せっかく楽しくなってきたとこですのに……。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっホントに天井崩れてるし！！　避難！　全員避難だぁ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……というわけで、明日の撮影は午後1時からです。数枚の写真の撮影だけですので、一時間もしないうちに終わるとのことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヤサ様にも責任の一端……いえ、責任の10割ほどを背負っていることをゆめゆめ忘れてはなりません。旦那様もあれだけお叱りになられたではありませんか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お父様に叱られずとも、スタジオ破壊はやりすぎた自覚がありますし、反省もしてますわ。ただ少し不完全燃焼なだけで……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー　友澤懐宇
+シナリオ　せるれぎおす
+イラストレーター　雨天どーん(@U10_dawn)
+統括　正田達樹</t>
+    <rPh sb="7" eb="9">
+      <t>トモサワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ウテン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウカツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショウダ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、モブデザイン　NovelAI
+カードデザイン　Midjourney
+制作協力　小杉、高瀬、福家、橋本</t>
+    <rPh sb="37" eb="39">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コスギ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>タカセ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>フケ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハシモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「俺のお嬢が世界で一番高貴なお嬢だ。だから俺のお嬢が世界で一番のお嬢様だ」と。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>top,0.5</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1904,8 +1892,8 @@
   </sheetPr>
   <dimension ref="A1:L1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="76" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1915,7 +1903,7 @@
     <col min="3" max="3" width="22.86328125" customWidth="1"/>
     <col min="4" max="4" width="19.53125" customWidth="1"/>
     <col min="7" max="7" width="23.1328125" customWidth="1"/>
-    <col min="9" max="9" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.86328125" customWidth="1"/>
     <col min="10" max="10" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="11.86328125" customWidth="1"/>
@@ -1954,7 +1942,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -1992,10 +1980,10 @@
       <c r="C3" s="3"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
@@ -2010,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="G4" s="9"/>
       <c r="L4" t="b">
@@ -2022,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -2033,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -2044,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -2055,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -2066,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -2077,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2088,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -2099,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -2110,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -2121,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -2132,10 +2120,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2146,7 +2134,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2157,10 +2145,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -2171,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -2182,11 +2170,11 @@
         <v>16</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2197,13 +2185,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L20" s="9" t="b">
         <v>0</v>
@@ -2214,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -2225,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="J22" s="9"/>
       <c r="L22" t="b">
@@ -2237,7 +2225,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -2248,16 +2236,16 @@
         <v>21</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="L24" s="9" t="b">
         <v>0</v>
@@ -2268,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2279,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -2291,7 +2279,7 @@
       </c>
       <c r="H27" s="9"/>
       <c r="K27" s="9" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="L27" s="9" t="b">
         <v>0</v>
@@ -2302,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>18</v>
@@ -2316,10 +2304,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="L29" s="9" t="b">
         <v>1</v>
@@ -2330,10 +2318,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L30" s="9" t="b">
         <v>1</v>
@@ -2344,10 +2332,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="L31" s="9" t="b">
         <v>1</v>
@@ -2358,13 +2346,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="L32" s="9" t="b">
         <v>1</v>
@@ -2375,10 +2363,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L33" s="9" t="b">
         <v>1</v>
@@ -2389,10 +2377,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="L34" s="9" t="b">
         <v>1</v>
@@ -2403,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C35" s="15"/>
       <c r="L35" s="9" t="b">
@@ -2415,13 +2403,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="L36" s="9" t="b">
         <v>1</v>
@@ -2433,7 +2421,7 @@
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L37" s="9" t="b">
         <v>0</v>
@@ -2444,7 +2432,7 @@
         <v>35</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9" t="s">
@@ -2459,16 +2447,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="L39" s="9" t="b">
         <v>1</v>
@@ -2479,13 +2467,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L40" s="9" t="b">
         <v>1</v>
@@ -2496,7 +2484,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C41" s="15"/>
       <c r="G41" s="9"/>
@@ -2509,7 +2497,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="C42" s="15"/>
       <c r="L42" s="9" t="b">
@@ -2521,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="C43" s="15"/>
       <c r="G43" s="9"/>
@@ -2534,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C44" s="15"/>
       <c r="L44" s="9" t="b">
@@ -2546,11 +2534,11 @@
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="C45" s="15"/>
       <c r="G45" s="9" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L45" s="9" t="b">
         <v>1</v>
@@ -2561,7 +2549,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C46" s="15"/>
       <c r="L46" s="9" t="b">
@@ -2573,11 +2561,11 @@
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C47" s="15"/>
       <c r="G47" s="9" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="L47" s="9" t="b">
         <v>1</v>
@@ -2588,7 +2576,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="C48" s="15"/>
       <c r="L48" s="9" t="b">
@@ -2600,11 +2588,11 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C49" s="15"/>
       <c r="G49" s="9" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L49" s="9" t="b">
         <v>1</v>
@@ -2615,7 +2603,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="C50" s="15"/>
       <c r="L50" s="9" t="b">
@@ -2627,11 +2615,11 @@
         <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="C51" s="15"/>
       <c r="G51" s="9" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="L51" s="9" t="b">
         <v>1</v>
@@ -2642,7 +2630,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C52" s="15"/>
       <c r="L52" s="9" t="b">
@@ -2654,11 +2642,11 @@
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="C53" s="15"/>
       <c r="G53" s="9" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="L53" s="9" t="b">
         <v>1</v>
@@ -2669,16 +2657,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="L54" s="9" t="b">
         <v>1</v>
@@ -2689,16 +2677,16 @@
         <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="L55" s="9" t="b">
         <v>1</v>
@@ -2709,7 +2697,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="L56" s="9" t="b">
         <v>1</v>
@@ -2720,10 +2708,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L57" s="9" t="b">
         <v>1</v>
@@ -2736,10 +2724,10 @@
       <c r="B58" s="2"/>
       <c r="C58" s="15"/>
       <c r="G58" s="9" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="K58" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="L58" s="9" t="b">
         <v>0</v>
@@ -2750,13 +2738,13 @@
         <v>56</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L59" s="9" t="b">
         <v>0</v>
@@ -2767,11 +2755,11 @@
         <v>57</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C60" s="1"/>
       <c r="G60" s="9" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="L60" s="9" t="b">
         <v>1</v>
@@ -2782,7 +2770,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="L61" s="9" t="b">
         <v>1</v>
@@ -2793,10 +2781,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="L62" s="9" t="b">
         <v>1</v>
@@ -2807,13 +2795,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="L63" s="9" t="b">
         <v>1</v>
@@ -2824,13 +2812,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="L64" s="9" t="b">
         <v>1</v>
@@ -2841,10 +2829,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="L65" s="9" t="b">
         <v>1</v>
@@ -2855,16 +2843,16 @@
         <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="L66" s="9" t="b">
         <v>1</v>
@@ -2876,7 +2864,7 @@
       </c>
       <c r="J67" s="9"/>
       <c r="K67" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="L67" s="9" t="b">
         <v>0</v>
@@ -2887,10 +2875,10 @@
         <v>65</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L68" s="9" t="b">
         <v>0</v>
@@ -2901,16 +2889,16 @@
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="L69" s="9" t="b">
         <v>1</v>
@@ -2921,13 +2909,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L70" s="9" t="b">
         <v>1</v>
@@ -2938,7 +2926,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C71" s="15"/>
       <c r="L71" s="9" t="b">
@@ -2950,7 +2938,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C72" s="15"/>
       <c r="L72" s="9" t="b">
@@ -2962,7 +2950,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C73" s="15"/>
       <c r="L73" s="9" t="b">
@@ -2974,7 +2962,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="C74" s="15"/>
       <c r="L74" s="9" t="b">
@@ -2986,7 +2974,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="L75" s="9" t="b">
         <v>1</v>
@@ -2997,7 +2985,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="L76" s="9" t="b">
         <v>1</v>
@@ -3008,11 +2996,11 @@
         <v>74</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C77" s="15"/>
       <c r="I77" s="18" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="L77" s="9" t="b">
         <v>1</v>
@@ -3023,13 +3011,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="L78" s="9" t="b">
         <v>1</v>
@@ -3040,7 +3028,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="C79" s="15"/>
       <c r="L79" s="9" t="b">
@@ -3052,11 +3040,11 @@
         <v>77</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C80" s="15"/>
       <c r="G80" s="9" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="L80" s="9" t="b">
         <v>1</v>
@@ -3067,7 +3055,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C81" s="15"/>
       <c r="L81" s="9" t="b">
@@ -3079,11 +3067,11 @@
         <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="C82" s="15"/>
       <c r="G82" s="9" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="L82" s="9" t="b">
         <v>1</v>
@@ -3094,7 +3082,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C83" s="15"/>
       <c r="L83" s="9" t="b">
@@ -3106,11 +3094,11 @@
         <v>81</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C84" s="15"/>
       <c r="G84" s="9" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L84" s="9" t="b">
         <v>1</v>
@@ -3121,7 +3109,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C85" s="15"/>
       <c r="L85" s="9" t="b">
@@ -3133,11 +3121,11 @@
         <v>83</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C86" s="15"/>
       <c r="G86" s="9" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="L86" s="9" t="b">
         <v>1</v>
@@ -3148,7 +3136,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="L87" s="9" t="b">
         <v>1</v>
@@ -3159,7 +3147,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C88" s="15"/>
       <c r="L88" s="9" t="b">
@@ -3171,11 +3159,11 @@
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="C89" s="15"/>
       <c r="G89" s="9" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="L89" s="9" t="b">
         <v>1</v>
@@ -3186,10 +3174,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="L90" s="9" t="b">
         <v>1</v>
@@ -3200,10 +3188,10 @@
         <v>88</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L91" s="9" t="b">
         <v>0</v>
@@ -3231,7 +3219,7 @@
         <v>90</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>18</v>
@@ -3245,16 +3233,16 @@
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="L94" t="b">
         <v>1</v>
@@ -3265,13 +3253,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="L95" t="b">
         <v>1</v>
@@ -3282,7 +3270,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C96" s="15"/>
       <c r="L96" t="b">
@@ -3294,11 +3282,11 @@
         <v>94</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C97" s="15"/>
       <c r="G97" s="9" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L97" t="b">
         <v>1</v>
@@ -3309,7 +3297,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C98" s="15"/>
       <c r="L98" t="b">
@@ -3321,11 +3309,11 @@
         <v>96</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C99" s="15"/>
       <c r="G99" s="9" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="L99" t="b">
         <v>1</v>
@@ -3336,7 +3324,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C100" s="15"/>
       <c r="L100" t="b">
@@ -3348,11 +3336,11 @@
         <v>98</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="C101" s="15"/>
       <c r="G101" s="9" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L101" t="b">
         <v>1</v>
@@ -3363,7 +3351,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="C102" s="15"/>
       <c r="L102" t="b">
@@ -3375,11 +3363,11 @@
         <v>100</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C103" s="15"/>
       <c r="G103" s="9" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="L103" t="b">
         <v>1</v>
@@ -3390,7 +3378,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C104" s="15"/>
       <c r="L104" t="b">
@@ -3402,10 +3390,10 @@
         <v>102</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -3433,10 +3421,10 @@
         <v>104</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -3447,16 +3435,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="L108" s="9" t="b">
         <v>1</v>
@@ -3467,13 +3455,13 @@
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L109" s="9" t="b">
         <v>1</v>
@@ -3484,13 +3472,11 @@
         <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>161</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C110" s="15"/>
       <c r="G110" s="9" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="L110" s="9" t="b">
         <v>1</v>
@@ -3501,7 +3487,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C111" s="15"/>
       <c r="L111" s="9" t="b">
@@ -3513,22 +3499,22 @@
         <v>109</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C112" s="15"/>
       <c r="G112" s="9" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="L112" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>110</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C113" s="15"/>
       <c r="L113" s="9" t="b">
@@ -3539,12 +3525,17 @@
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="C114" s="15"/>
+      <c r="C114" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="G114" s="9" t="s">
-        <v>182</v>
+        <v>121</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="L114" s="9" t="b">
         <v>0</v>
@@ -3555,93 +3546,78 @@
         <v>112</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="L115" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="B116" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="K116" s="9"/>
       <c r="L116" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="K117" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="L117" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H118" s="9"/>
-      <c r="J118" s="18" t="s">
-        <v>194</v>
+      <c r="H118" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="L118" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>36</v>
+      <c r="B119" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="L119" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
@@ -3649,125 +3625,117 @@
         <v>117</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="K120" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="L120" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="K121" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="B121" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C121" s="15"/>
       <c r="L121" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="H122" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K122" s="9" t="s">
-        <v>36</v>
+      <c r="B122" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="G122" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="L122" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>120</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>136</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C123" s="15"/>
       <c r="L123" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>121</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>193</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C124" s="15"/>
       <c r="G124" s="9" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L124" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C125" s="15"/>
       <c r="L125" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>123</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C126" s="15"/>
       <c r="G126" s="9" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="L126" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="C127" s="15"/>
       <c r="L127" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>125</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" s="15"/>
-      <c r="G128" s="9" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="L128" s="9" t="b">
         <v>1</v>
@@ -3778,46 +3746,55 @@
         <v>126</v>
       </c>
       <c r="B129" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="G129" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="15"/>
       <c r="L129" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="C130" s="15"/>
-      <c r="G130" s="9" t="s">
-        <v>185</v>
+      <c r="G130" s="9"/>
+      <c r="K130" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="L130" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C131" s="15"/>
+      <c r="H131" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="L131" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>129</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I132" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="L132" s="9" t="b">
         <v>1</v>
@@ -3828,11 +3805,13 @@
         <v>130</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C133" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="G133" s="9" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="L133" s="9" t="b">
         <v>1</v>
@@ -3842,10 +3821,14 @@
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="G134" s="9"/>
+      <c r="C134" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="K134" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L134" s="9" t="b">
         <v>0</v>
@@ -3855,47 +3838,39 @@
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>154</v>
+      <c r="B135" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L135" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="L135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="48.75" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>133</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I136" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L136" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K136" s="9"/>
+      <c r="L136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L137" s="9" t="b">
+        <v>69</v>
+      </c>
+      <c r="L137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3904,15 +3879,8 @@
         <v>135</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K138" s="9"/>
+        <v>88</v>
+      </c>
       <c r="L138" t="b">
         <v>1</v>
       </c>
@@ -3922,100 +3890,66 @@
         <v>136</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K139" s="9"/>
+        <v>200</v>
+      </c>
       <c r="L139" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="36.75" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>137</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="L140" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>138</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="L141" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="48.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>119</v>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="L142" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>140</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="24.75" x14ac:dyDescent="0.35">
-      <c r="A144">
-        <v>141</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>142</v>
-      </c>
-      <c r="D145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="147" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="148" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="149" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="151" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="152" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="153" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="155" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="156" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="157" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="158" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="159" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:12" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="161" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="162" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="163" ht="12.75" x14ac:dyDescent="0.35"/>
